--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Achalasia (type 1).xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Achalasia (type 1).xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and indicate systemic involvement.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and not with isolated Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gradual onset of dysphagia without systemic symptoms</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Achalasia (type 1) typically presents with isolated dysphagia without systemic involvement.</t>
+          <t>Progressive dysphagia for both solids and liquids is a classic presentation of Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Skin thickening</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and less so with isolated achalasia.</t>
+          <t>Skin thickening is a hallmark of CREST syndrome, which is not present in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of connective tissue disease</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of connective tissue disease history supports a diagnosis of isolated achalasia.</t>
+          <t>Regurgitation of undigested food is more typical of Achalasia (type 1) than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia with associated symptoms of reflux or regurgitation</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In CREST syndrome, dysphagia may be accompanied by reflux due to esophageal motility issues.</t>
+          <t>Calcinosis is a specific feature of CREST syndrome and not seen in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dysphagia primarily for solids rather than liquids</t>
+          <t>Chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>In achalasia (type 1), patients often report more difficulty swallowing solids than liquids.</t>
+          <t>Chest pain is a common symptom in Achalasia (type 1) and less specific to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a complication of CREST syndrome and not typically seen in isolated achalasia.</t>
+          <t>Telangiectasia is a characteristic of CREST syndrome, distinguishing it from Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No associated skin or vascular symptoms</t>
+          <t>Weight loss</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The lack of skin or vascular symptoms suggests a diagnosis of isolated achalasia rather than CREST syndrome.</t>
+          <t>Weight loss due to difficulty swallowing is more indicative of Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of gastrointestinal symptoms beyond dysphagia, such as constipation</t>
+          <t>Esophageal dysmotility with sclerodactyly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastrointestinal dysmotility is more prevalent in CREST syndrome compared to isolated achalasia.</t>
+          <t>Sclerodactyly along with esophageal dysmotility is indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal findings on esophageal manometry</t>
+          <t>No skin or vascular symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>In achalasia (type 1), esophageal manometry typically shows elevated resting lower esophageal sphincter pressure without other motility disorders.</t>
+          <t>Absence of skin or vascular symptoms suggests Achalasia (type 1) over CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not typically present in isolated Achalasia (type 1).</t>
+          <t>Scleroderma is a component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of dysphagia without systemic symptoms</t>
+          <t>No history of autoimmune disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dysphagia is a primary symptom of Achalasia (type 1) and may not be accompanied by systemic symptoms seen in CREST syndrome.</t>
+          <t>Absence of autoimmune disease history is more consistent with primary Achalasia (type 1).</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of Achalasia (type 1).</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of regurgitation without other autoimmune symptoms</t>
+          <t>No history of skin changes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regurgitation is a common symptom in Achalasia (type 1) and is less likely to occur in the context of CREST syndrome.</t>
+          <t>Lack of skin changes such as scleroderma is more typical of Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not a common finding in Achalasia (type 1).</t>
+          <t>Telangiectasia is a feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of connective tissue disease</t>
+          <t>No history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of connective tissue disease history supports a diagnosis of Achalasia (type 1) over CREST syndrome.</t>
+          <t>Absence of Raynaud's phenomenon is more indicative of Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of skin changes (e.g., calcinosis)</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calcinosis is a specific manifestation of CREST syndrome and is absent in Achalasia (type 1).</t>
+          <t>Calcinosis is part of the CREST syndrome spectrum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of successful pneumatic dilation</t>
+          <t>No history of telangiectasia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Successful treatment with pneumatic dilation is more characteristic of Achalasia (type 1) than of Type 2 Achalasia associated with CREST syndrome.</t>
+          <t>Lack of telangiectasia is more consistent with Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of esophageal dilation procedures</t>
+          <t>Current use of immunosuppressive medications</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome may undergo esophageal dilation due to Type 2 Achalasia, while those with Achalasia (type 1) may not have this history.</t>
+          <t>Immunosuppressive medications are often used in the management of autoimmune conditions like CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of skin or vascular changes</t>
+          <t>No use of immunosuppressive medications</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of skin or vascular changes supports a diagnosis of Achalasia (type 1) rather than CREST syndrome.</t>
+          <t>Not using immunosuppressive medications suggests absence of autoimmune conditions, favoring Achalasia (type 1).</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases is more common in patients with CREST syndrome, indicating a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,95 +779,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of autoimmune diseases in the family is more indicative of Achalasia (type 1), which is not autoimmune in nature.</t>
+          <t>Achalasia (type 1) is not typically associated with autoimmune diseases, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, which is not typically associated with Achalasia (type 1).</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and may indicate a familial predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of Raynaud's phenomenon</t>
+          <t>No family history of scleroderma</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon supports a diagnosis of Achalasia (type 1), as it is not a feature of this condition.</t>
+          <t>The absence of scleroderma in family history makes CREST syndrome less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental triggers</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain environmental exposures may increase the risk of developing CREST syndrome, distinguishing it from Achalasia (type 1).</t>
+          <t>Scleroderma is a key component of CREST syndrome and a family history can suggest a genetic link.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No occupational exposure to known triggers</t>
+          <t>No family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patients with Achalasia (type 1) typically do not have occupational exposures that are linked to autoimmune conditions.</t>
+          <t>Raynaud's phenomenon is not associated with Achalasia (type 1), unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of other connective tissue disorders in family</t>
+          <t>Family history of connective tissue disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of other connective tissue disorders suggests a higher likelihood of CREST syndrome.</t>
+          <t>Connective tissue disorders are related to CREST syndrome and may indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of connective tissue disorders in family</t>
+          <t>No family history of connective tissue disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of connective tissue disorders in the family suggests a lower likelihood of CREST syndrome.</t>
+          <t>Connective tissue disorders are not linked to Achalasia (type 1), unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of skin changes or calcinosis</t>
+          <t>Family history of calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skin changes or calcinosis are specific to CREST syndrome and not typically seen in Achalasia (type 1).</t>
+          <t>Calcinosis is part of the CREST syndrome spectrum and a family history can suggest a genetic component.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No skin changes or calcinosis</t>
+          <t>No family history of calcinosis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of skin changes or calcinosis supports the diagnosis of Achalasia (type 1), which does not present with these symptoms.</t>
+          <t>Calcinosis is not associated with Achalasia (type 1), unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not typically seen in isolated Achalasia (type 1).</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal skin findings</t>
+          <t>Absence of skin changes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Patients with Achalasia (type 1) typically do not exhibit the skin changes seen in CREST syndrome.</t>
+          <t>Lack of skin changes such as sclerodactyly or telangiectasia suggests Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of Achalasia (type 1).</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of Raynaud's phenomenon</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon supports a diagnosis of Achalasia (type 1) over CREST syndrome.</t>
+          <t>A normal skin exam without calcinosis or telangiectasia supports Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Telangiectasia</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome, whereas it is not associated with Achalasia (type 1).</t>
+          <t>Calcium deposits in the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No telangiectasia</t>
+          <t>No Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The lack of telangiectasia is more consistent with Achalasia (type 1) than with CREST syndrome.</t>
+          <t>The absence of Raynaud's phenomenon is more consistent with Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not a typical finding in Achalasia (type 1).</t>
+          <t>Episodes of reduced blood flow to the fingers are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal pulmonary function tests</t>
+          <t>No digital ulcers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal pulmonary function tests are more likely in Achalasia (type 1) compared to the pulmonary complications seen in CREST syndrome.</t>
+          <t>The lack of digital ulcers is indicative of Achalasia (type 1) rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dysphagia with esophageal dilation</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While dysphagia occurs in both conditions, esophageal dilation is more pronounced in Type 2 Achalasia associated with CREST syndrome.</t>
+          <t>Ulcers on the fingertips are more common in CREST syndrome due to vascular involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Localized esophageal motility issues</t>
+          <t>Normal nailfold capillaries</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Achalasia (type 1) typically presents with localized esophageal motility issues, unlike the more diffuse motility problems in Type 2 Achalasia.</t>
+          <t>Normal nailfold capillaries are more typical in Achalasia (type 1) than in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,56 +1066,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing incomplete lower esophageal sphincter relaxation</t>
+          <t>Positive anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is more common in Type 2 Achalasia associated with CREST syndrome, indicating a specific motility pattern.</t>
+          <t>Anti-centromere antibodies are commonly associated with CREST syndrome and not with isolated achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing complete lower esophageal sphincter relaxation</t>
+          <t>Esophageal manometry showing aperistalsis with complete LES relaxation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This finding is typical for Achalasia (type 1) and is not seen in Type 2 Achalasia.</t>
+          <t>Type 1 achalasia is characterized by aperistalsis and complete LES relaxation, distinguishing it from type 2 achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow showing dilated esophagus with peristaltic contractions</t>
+          <t>Esophageal manometry showing incomplete lower esophageal sphincter (LES) relaxation with esophageal body pressurization</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is characteristic of Type 2 Achalasia and less common in classic Achalasia (type 1).</t>
+          <t>Type 2 achalasia is characterized by incomplete LES relaxation and esophageal pressurization, which is not typical in type 1 achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barium swallow showing classic 'bird-beak' appearance</t>
+          <t>Barium swallow showing bird-beak appearance without esophageal pressurization</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This classic finding is more indicative of Achalasia (type 1) than Type 2 Achalasia.</t>
+          <t>The classic bird-beak appearance without pressurization is typical of type 1 achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>Presence of telangiectasia on endoscopy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are associated with CREST syndrome and are not typically found in patients with Achalasia (type 1).</t>
+          <t>Telangiectasia is a feature of CREST syndrome and not seen in isolated achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,51 +1125,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of these antibodies supports a diagnosis of Achalasia (type 1) rather than CREST syndrome.</t>
+          <t>The absence of anti-centromere antibodies suggests against CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal dilation on imaging studies</t>
+          <t>Barium swallow showing esophageal dilation with distal narrowing and pressurization</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>More pronounced dilation is often seen in Type 2 Achalasia due to the underlying connective tissue disorder.</t>
+          <t>This pattern is more indicative of type 2 achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Normal skin biopsy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal motility findings are more consistent with Achalasia (type 1) and less likely in Type 2 Achalasia.</t>
+          <t>A normal skin biopsy suggests against scleroderma, which is part of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux disease (GERD) symptoms</t>
+          <t>Skin biopsy showing scleroderma changes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD is more prevalent in patients with CREST syndrome due to esophageal motility issues.</t>
+          <t>Scleroderma changes are indicative of CREST syndrome and not present in isolated achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lack of significant esophageal dilation on imaging</t>
+          <t>Endoscopy showing normal mucosa without telangiectasia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Less dilation is typically observed in Achalasia (type 1) compared to Type 2 Achalasia.</t>
+          <t>Normal mucosa without telangiectasia is more consistent with isolated achalasia.</t>
         </is>
       </c>
     </row>
